--- a/词汇/数据库导入/005. -od-路.xlsx
+++ b/词汇/数据库导入/005. -od-路.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,1056 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>method ['meθəd]</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法；条理【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【meth-在后，强调+-od-路--后路--方法，策略】</t>
+  </si>
+  <si>
+    <t>methodical [mɪ'θɒdɪk(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有系统的；有方法的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【method+ic+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>methodology [meθə'dɒlədʒɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法学，方法论【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【method+o+-logy名词后缀，表...学】</t>
+  </si>
+  <si>
+    <t>methodological [,meθədə'lɒdʒɪkəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的，方法论的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【methodology+ic+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>methodologically [,meθədə'lɒdʒɪkəli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法学；在方法论上【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29299</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【methodological+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>methodist ['meθədɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫理公会派教徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫理公会教派的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7793</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13807</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【method+ist名词后缀，表人，也表形容词后缀】</t>
+  </si>
+  <si>
+    <t>period ['pɪərɪəd]</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一段时间【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期，期间；时期【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>617</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【per-完全+i连字符+od路--一段路，完整的路--周期】</t>
+  </si>
+  <si>
+    <t>periodic [,pɪərɪ'ɒdɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期的；定期的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7837</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【period+ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>periodical [pɪərɪ'ɒdɪk(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t>adj. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期的；定期的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期刊；杂志【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【periodic+al形容词或名词后缀】</t>
+  </si>
+  <si>
+    <t>periodically [,pɪərɪ'ɒdɪkəlɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定期地；周期性地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7154</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14069</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【periodical+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>periodicity [,pɪərɪə'dɪsɪtɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期性；频率；定期性【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【periodic+i+ty名词后缀】</t>
+  </si>
+  <si>
+    <t>periodize['pɪərɪədaɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绘画、音乐、文学等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>划分时期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或时代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>【period+ize动词后缀 】</t>
+  </si>
+  <si>
+    <t>periodization [,piəriədai'zeiʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期化；（历史等的）时期（或时代）划分【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ation复合名词后缀】</t>
+  </si>
+  <si>
+    <t>long-period['pɪərɪəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长期的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>short-period['pɪərɪəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短寿命的；短周期的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>odograph ['əʊdəɡrɑːf]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里程表；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记步器</t>
+    </r>
+  </si>
+  <si>
+    <t>【-od-路+o连字符+-graph-写--记录--记录路程】</t>
+  </si>
+  <si>
+    <t>odometer [əʊ'dɒmɪtə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（汽车的）里程表【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26370</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-od-+o连字符+-meter-测量--测量路--里程】</t>
+  </si>
+  <si>
+    <t>exodus ['eksədəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大批的离去【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ex-向外+od路--出路--离开+-us名词后缀】</t>
+  </si>
+  <si>
+    <t>periodontal [,perɪə'dɒntəl]</t>
+  </si>
+  <si>
+    <t>periodontal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>齿根膜的，牙周的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【period=peri-周期，周围，+-dont-牙齿+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>periodontist [piəriə'dɔntist]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牙周病医师；牙周病学家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56815</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ist名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>periodontitis [,periədɔn'taitis]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口腔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牙周炎【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58751</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【itis医学名词后缀】</t>
   </si>
 </sst>
 </file>
@@ -43,7 +1093,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,45 +1102,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,8 +1137,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,25 +1173,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,15 +1212,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +1236,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,17 +1252,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,25 +1273,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,157 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,15 +1482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -445,17 +1497,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +1556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +1584,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +2096,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +2126,363 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
